--- a/data/trans_camb/P57_AF_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P57_AF_R-Edad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>18.74176768131339</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-12.58245889211577</v>
+        <v>-12.58245889211576</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.120807452965622</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.579395106791603</v>
+        <v>-1.550837167641412</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>12.79538770804604</v>
+        <v>12.90275296369885</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-21.30782151601619</v>
+        <v>-21.31473477415476</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.740437174801658</v>
+        <v>-5.148928802572097</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>6.497445522088777</v>
+        <v>6.069703846122151</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-18.53953316471136</v>
+        <v>-18.20425936677304</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.427079075054642</v>
+        <v>-1.499957982622032</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>10.96216044031441</v>
+        <v>11.87692274598065</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-17.36347107376334</v>
+        <v>-17.8191717505264</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.01129114001156</v>
+        <v>11.32103722990449</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>25.36683432246864</v>
+        <v>25.31825704563956</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-4.094428649701349</v>
+        <v>-4.646107191430092</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.80526275475748</v>
+        <v>7.445332361336614</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>18.85568753096778</v>
+        <v>19.03935577562723</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-2.178519551563513</v>
+        <v>-1.568587871373144</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.660461022803093</v>
+        <v>7.511619022032178</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>20.2321490781275</v>
+        <v>20.99086097598382</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-4.829638437737924</v>
+        <v>-5.35150639480097</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.3685401909623501</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.2474228622255178</v>
+        <v>-0.2474228622255177</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.02009393890484958</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.03282805292145834</v>
+        <v>-0.02586076638540008</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2343744591608087</v>
+        <v>0.2389963113079499</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4024485729424406</v>
+        <v>-0.3957940000450806</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.08219760309884479</v>
+        <v>-0.08883282387866917</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.110538231004087</v>
+        <v>0.1064587038605489</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3203131903637747</v>
+        <v>-0.305551616177234</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.02465078158355808</v>
+        <v>-0.02718625660941117</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.200753468753811</v>
+        <v>0.2086988497087078</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3193164843965415</v>
+        <v>-0.3241565806912958</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2306738137064928</v>
+        <v>0.2394955159548205</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5360223766643716</v>
+        <v>0.529938261028181</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.08272097237376055</v>
+        <v>-0.08906962240066005</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.145808491031367</v>
+        <v>0.1444301871850531</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3598402146687187</v>
+        <v>0.3641223216419167</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.03838339331642757</v>
+        <v>-0.02486823038669421</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1487605016665183</v>
+        <v>0.1481812322053384</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4012309949612761</v>
+        <v>0.4151671326550437</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.09207447959508125</v>
+        <v>-0.1040022645508843</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>16.37063105001816</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-7.929678198290685</v>
+        <v>-7.929678198290679</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>3.45540071501339</v>
@@ -878,7 +878,7 @@
         <v>16.55882724404612</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-5.895393502670954</v>
+        <v>-5.895393502670943</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.408923443956581</v>
+        <v>-6.063071533069948</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>11.6748045240181</v>
+        <v>11.49900945107619</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.961463387661661</v>
+        <v>-11.23847914699581</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.470272691639138</v>
+        <v>2.525936530701449</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>10.54861444545409</v>
+        <v>10.84724622816201</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-14.26680130845626</v>
+        <v>-14.39907887596891</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.2081987301711733</v>
+        <v>-0.3733650671038139</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>13.1379586860464</v>
+        <v>12.87147700976153</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-10.43833624138111</v>
+        <v>-10.3864525113598</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.742569581650805</v>
+        <v>4.573222178712063</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>21.66212822845931</v>
+        <v>21.93921127912923</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.618088322979037</v>
+        <v>2.2441290981169</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13.55599501249768</v>
+        <v>13.64053235774742</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>21.47799573737787</v>
+        <v>21.60925322839588</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-1.647514261859927</v>
+        <v>-1.756534211817328</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.491403098173055</v>
+        <v>7.330449298712121</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>20.16234537116453</v>
+        <v>20.50415845027731</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-1.519521610837111</v>
+        <v>-1.370913169572578</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.2858965303871692</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.1384838175786492</v>
+        <v>-0.1384838175786491</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.05965118843645498</v>
@@ -983,7 +983,7 @@
         <v>0.285857938249999</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.1017732117745176</v>
+        <v>-0.1017732117745175</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1050990917475381</v>
+        <v>-0.0987382812780057</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1905379409430612</v>
+        <v>0.1864848527410082</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1670928868198631</v>
+        <v>-0.1879371764446139</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.04271581255506978</v>
+        <v>0.0402145463633645</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1785632251162211</v>
+        <v>0.1791951192167032</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2376530699575689</v>
+        <v>-0.2415109492257895</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.003495971946343627</v>
+        <v>-0.005928497912594984</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2171659184477821</v>
+        <v>0.2139574427144657</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1789123927521654</v>
+        <v>-0.1762036055223974</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.06703533042277095</v>
+        <v>0.08062492310601319</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3886489149889286</v>
+        <v>0.3955670276632361</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.065115721746653</v>
+        <v>0.0359715621456748</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2497128063675588</v>
+        <v>0.2488108959633948</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3943176875293367</v>
+        <v>0.401045662851288</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.02995802244026628</v>
+        <v>-0.03184931176737612</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1347054822842909</v>
+        <v>0.1320974596848674</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.359580268749405</v>
+        <v>0.3677417240847568</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.02785904792666096</v>
+        <v>-0.02371053797980366</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.8605018790664616</v>
+        <v>-1.978040461242493</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.015736148615891</v>
+        <v>7.353062275172433</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.967222919861959</v>
+        <v>-8.568941441756643</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5752703623200506</v>
+        <v>0.09913674291023061</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>7.882122322852771</v>
+        <v>7.696157229870666</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-8.960189786380347</v>
+        <v>-9.062445042945299</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.150418761018883</v>
+        <v>1.265098565526957</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>9.115728921446053</v>
+        <v>9.235165260497762</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-7.582647058700342</v>
+        <v>-7.369823321343079</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.19482225130385</v>
+        <v>9.873219237761855</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>18.02844364196303</v>
+        <v>18.0704111733853</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.838100128231937</v>
+        <v>3.309290514526991</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.46006408144651</v>
+        <v>10.9044041417915</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>18.35162380862957</v>
+        <v>18.21295716125108</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8240385678541642</v>
+        <v>1.30412496280514</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.732381447643164</v>
+        <v>8.800583429464625</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>16.43076076072569</v>
+        <v>16.43988893928852</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4367738777855481</v>
+        <v>0.4243992680398535</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.009366359455351277</v>
+        <v>-0.02999925052449578</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1093104911993366</v>
+        <v>0.1160303986484251</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1399914147708578</v>
+        <v>-0.1333487749695569</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.009422369042799417</v>
+        <v>0.00380495763683615</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1281057921261516</v>
+        <v>0.1268548761473769</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1407764170148789</v>
+        <v>-0.1472730357060549</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02124458982388149</v>
+        <v>0.02076161119749594</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1469054617705417</v>
+        <v>0.1498628362449032</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1206178015147361</v>
+        <v>-0.1185356064397993</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1760240735825366</v>
+        <v>0.1738869070662887</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3109669215670641</v>
+        <v>0.3094086225777646</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.04870603034454595</v>
+        <v>0.05790978456793234</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1827023053567709</v>
+        <v>0.1927999881197466</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3241404834708498</v>
+        <v>0.3222180825864935</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01426509780981234</v>
+        <v>0.02278005013860267</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1499503669423496</v>
+        <v>0.151221622604546</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2826140664848083</v>
+        <v>0.2822007174838725</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.007505536419608301</v>
+        <v>0.007597375847842996</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>14.70618935631478</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-3.976831618108367</v>
+        <v>-3.976831618108356</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.011234090338037</v>
+        <v>-4.986480318780984</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.91662777145664</v>
+        <v>8.301350505749742</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-10.97516492219469</v>
+        <v>-11.29789253852695</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.16202813301277</v>
+        <v>5.035164833070435</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>10.07860550814627</v>
+        <v>10.14929505703573</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-7.425855716425519</v>
+        <v>-7.239767635299699</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.300279919193871</v>
+        <v>1.93314293467262</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>11.08597353963228</v>
+        <v>10.50616456301439</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-7.85533982295423</v>
+        <v>-7.846869005715041</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.009695454877472</v>
+        <v>7.426870029319575</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>19.76318147969882</v>
+        <v>19.28213681515368</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6009504461694912</v>
+        <v>0.6094641313154271</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16.91527979282832</v>
+        <v>16.90524763526265</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>21.33155545295001</v>
+        <v>20.69918559670806</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.574084519791961</v>
+        <v>3.230055209475781</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>10.34064779014308</v>
+        <v>10.23061543007992</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>19.12087372844404</v>
+        <v>18.40788529009657</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.01789715615794337</v>
+        <v>0.050580562506544</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.2377822091745191</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.06430080456313719</v>
+        <v>-0.06430080456313701</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.07731816607166858</v>
+        <v>-0.07597655075004289</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1209449364382669</v>
+        <v>0.1265227974525986</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1685439975799195</v>
+        <v>-0.1721347929350912</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.08445614580259395</v>
+        <v>0.07784046968612707</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1549929627286379</v>
+        <v>0.1554549715318355</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1178763966946194</v>
+        <v>-0.1126857801267147</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03723750493765098</v>
+        <v>0.03029628938281987</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1733532875599005</v>
+        <v>0.1634568345602074</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1218526288776474</v>
+        <v>-0.123021737253879</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1181169605756057</v>
+        <v>0.1278928503460762</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3383140157609829</v>
+        <v>0.3269909234739648</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.004646648939015032</v>
+        <v>0.009959523575281194</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2913836027702905</v>
+        <v>0.2913234821211756</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3697822274446111</v>
+        <v>0.3593402908285477</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04381292457580413</v>
+        <v>0.0568554735359862</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1758004207667953</v>
+        <v>0.1722255363628946</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3238649996081876</v>
+        <v>0.31011577215277</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.001282391438653946</v>
+        <v>0.0008686821155046581</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>10.70882526352497</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-2.497036496388094</v>
+        <v>-2.497036496388105</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-11.97667160435202</v>
+        <v>-11.94931719765449</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.424655404911644</v>
+        <v>3.403275168543553</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.790609697064508</v>
+        <v>-8.301552652702632</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-4.224443981067559</v>
+        <v>-3.882086400269152</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>5.209318728094656</v>
+        <v>5.90196398609593</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-9.24045482301047</v>
+        <v>-8.569827768863107</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-5.742284212303314</v>
+        <v>-5.887124598996793</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>6.029742580498205</v>
+        <v>6.32949445975545</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-6.689095662001416</v>
+        <v>-6.584866206379736</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.751502800231995</v>
+        <v>1.861306237467007</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>15.5510570755124</v>
+        <v>15.96213190587285</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.413987068430034</v>
+        <v>3.851225853482251</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8.741052465436502</v>
+        <v>8.857829828088148</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>18.1691248221142</v>
+        <v>17.94703649006394</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.806301937273396</v>
+        <v>2.436788576581036</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.931280582612839</v>
+        <v>4.046209154060012</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>15.2873674931599</v>
+        <v>14.83806582854982</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.849859337134332</v>
+        <v>1.595270435547623</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>0.1642716535832873</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.03830413740306651</v>
+        <v>-0.03830413740306669</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1815027175089491</v>
+        <v>-0.1785878571018431</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.03294249399652765</v>
+        <v>0.0486916043215443</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1150064498333527</v>
+        <v>-0.1203848990605924</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.06090869522290285</v>
+        <v>-0.05614515168170946</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.07758840591733984</v>
+        <v>0.08441130090642449</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1298060289312323</v>
+        <v>-0.1238898446108953</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.08430589554655632</v>
+        <v>-0.08680063926112581</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.0902350208235687</v>
+        <v>0.09438229596085125</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.09832385514992445</v>
+        <v>-0.09678021263949702</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.02463884008964918</v>
+        <v>0.03096401512273469</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.252367357273435</v>
+        <v>0.2657608364107326</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.07539239856247965</v>
+        <v>0.06302543777752918</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1380509372248676</v>
+        <v>0.1398935126856113</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2922106947448813</v>
+        <v>0.2843521619035914</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.04474678048603781</v>
+        <v>0.0400127630720498</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.06307938328237435</v>
+        <v>0.06440510123321928</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2423630104808092</v>
+        <v>0.2377733791961283</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.03028834292726599</v>
+        <v>0.02550757359899816</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>4.247374578578977</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-5.308261749883114</v>
+        <v>-5.308261749883103</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>5.86920323216159</v>
@@ -1734,7 +1734,7 @@
         <v>10.54404393150147</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-4.307335728961858</v>
+        <v>-4.30733572896187</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-8.218668666327041</v>
+        <v>-8.092867151367306</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.03533775920538</v>
+        <v>-3.527323501277836</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-11.94869154973281</v>
+        <v>-11.79718471497934</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.5533331342852235</v>
+        <v>-0.7519303140747547</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>9.971680202370404</v>
+        <v>9.662286007007657</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-9.580957553645728</v>
+        <v>-9.252119400606304</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.295012854560071</v>
+        <v>-2.65500664011153</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>5.751630265901815</v>
+        <v>5.663589503085371</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-8.632456934851245</v>
+        <v>-8.459252649818904</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>7.088594617156674</v>
+        <v>6.507198766423505</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>11.48791936354408</v>
+        <v>11.50971546112075</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1.107104545195088</v>
+        <v>1.387940267773003</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>12.5742720408827</v>
+        <v>13.6296513005584</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>22.29729447502827</v>
+        <v>22.26315685965252</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.406951274812143</v>
+        <v>2.781813081225285</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>7.916966987417279</v>
+        <v>7.767581606812522</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>15.59384982415682</v>
+        <v>15.55752008820064</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.5136157466629883</v>
+        <v>0.4765590281523308</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.06294656584738909</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.0786690322674542</v>
+        <v>-0.07866903226745403</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.09092817446014892</v>
@@ -1839,7 +1839,7 @@
         <v>0.1600215097142344</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.06537021001356806</v>
+        <v>-0.06537021001356823</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1159360165931275</v>
+        <v>-0.1142098222403341</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.04281089850181678</v>
+        <v>-0.0487268074670384</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1664274591545265</v>
+        <v>-0.1639422903311312</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.008176459663409512</v>
+        <v>-0.01175480652359884</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.1450552673192086</v>
+        <v>0.142702194869715</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1404151990020012</v>
+        <v>-0.1374155168130395</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.03324915515740681</v>
+        <v>-0.03887810508006558</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.08554249222823736</v>
+        <v>0.08117116027772038</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1264706035179049</v>
+        <v>-0.1235049485888296</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1122914127719936</v>
+        <v>0.1006603993275798</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.1824345661892179</v>
+        <v>0.1852159225818013</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.01564485718617235</v>
+        <v>0.02203116030694609</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.2046434901171925</v>
+        <v>0.2248024570712874</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.3707644812826901</v>
+        <v>0.36882613999049</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.03966019525564897</v>
+        <v>0.04469119603529599</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1242324753554054</v>
+        <v>0.1215516369056084</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.2472205359346455</v>
+        <v>0.2469228973545886</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.007103435172080278</v>
+        <v>0.008020023653395571</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>5.731323727748427</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-4.914855069524416</v>
+        <v>-4.914855069524404</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-2.025508303237089</v>
@@ -1948,7 +1948,7 @@
         <v>10.87677316793191</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-1.543536394049694</v>
+        <v>-1.543536394049705</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-10.14947593122455</v>
+        <v>-9.777931233920402</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.344788222652709</v>
+        <v>-2.162247788927135</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-12.55078394687316</v>
+        <v>-12.62611049470831</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-9.265609610463903</v>
+        <v>-9.406116431531638</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>7.311652146698493</v>
+        <v>6.862819024404224</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-5.666087085536421</v>
+        <v>-5.515669625273452</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-6.89271712822412</v>
+        <v>-7.159783325181176</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>5.393892659307086</v>
+        <v>5.753937061646817</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-6.058607836131246</v>
+        <v>-6.272881492035315</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>7.410008371054051</v>
+        <v>7.434103378299247</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>13.52100884945941</v>
+        <v>12.944165550814</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3.054297583998321</v>
+        <v>2.979806904702914</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5.309637074790881</v>
+        <v>4.879536841609314</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>20.56989863605517</v>
+        <v>21.13347857334062</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>6.470595653340777</v>
+        <v>7.10457862017515</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.422884904492817</v>
+        <v>3.726457334663468</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>15.85241580498941</v>
+        <v>15.59980057918133</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>3.578780335669194</v>
+        <v>3.018667140870805</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.07931286026211236</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.06801416773064803</v>
+        <v>-0.06801416773064788</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.02904474125052262</v>
@@ -2053,7 +2053,7 @@
         <v>0.1538180055148995</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.02182850427297521</v>
+        <v>-0.02182850427297537</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.132185682782973</v>
+        <v>-0.1296383559554517</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.03043770901135008</v>
+        <v>-0.02747667185226575</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1630327262621819</v>
+        <v>-0.1632286426157966</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1258444766987696</v>
+        <v>-0.1251694606266815</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.09618134705002718</v>
+        <v>0.09123984428026981</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.07662830285094467</v>
+        <v>-0.07421897743948148</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.09468425578464203</v>
+        <v>-0.09847841946054091</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.071655061546405</v>
+        <v>0.07888801100581377</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.08198783552574197</v>
+        <v>-0.08511180237549087</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1102834577046195</v>
+        <v>0.1077315327582938</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1999171680085969</v>
+        <v>0.191831567933113</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.04551850167726009</v>
+        <v>0.04368475158857309</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.07970224010330859</v>
+        <v>0.0751563032126794</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.3136938674007927</v>
+        <v>0.3246931488820984</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.100266997779658</v>
+        <v>0.1081977316010791</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.0654436039510535</v>
+        <v>0.05468311167519665</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.2356817578170363</v>
+        <v>0.2326789524094945</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.05261046579853246</v>
+        <v>0.04495414263775078</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>13.24194788006383</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-3.699322236077196</v>
+        <v>-3.699322236077207</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>5.58819750341002</v>
@@ -2162,7 +2162,7 @@
         <v>14.06356089484934</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-3.365784617819279</v>
+        <v>-3.36578461781929</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.266151483813687</v>
+        <v>-1.003840931444971</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>10.98672094033504</v>
+        <v>11.0608787364729</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-6.016179580947626</v>
+        <v>-6.006723462648057</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>3.280860491679713</v>
+        <v>3.302133029609018</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>12.30721330783962</v>
+        <v>12.77556608085612</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-5.100626905713659</v>
+        <v>-5.156937511174794</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>1.775834977018622</v>
+        <v>1.84229677604867</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>12.40701984442996</v>
+        <v>12.4861530710965</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-5.110884323922697</v>
+        <v>-4.939593805792175</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>3.491334751241111</v>
+        <v>3.739376935895515</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>15.50247541043336</v>
+        <v>15.48468823372707</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-1.214274857295861</v>
+        <v>-1.095274480596624</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>8.033193321246271</v>
+        <v>8.012448621426616</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>16.87355811878634</v>
+        <v>17.31071134307453</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-0.9976771376124386</v>
+        <v>-0.7092200054640264</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>5.023271157931925</v>
+        <v>5.115948238467971</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>15.72659519817787</v>
+        <v>15.75963820358269</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-1.631279491077735</v>
+        <v>-1.764208867095748</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.2181606683362387</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.06094621567184567</v>
+        <v>-0.06094621567184585</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.09124331538557139</v>
@@ -2267,7 +2267,7 @@
         <v>0.2306412933761219</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.05519860320465524</v>
+        <v>-0.05519860320465542</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.02112090894903687</v>
+        <v>-0.01632302375557229</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.1760840734817403</v>
+        <v>0.1790928351357893</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.09788611777890076</v>
+        <v>-0.09929653111937473</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.05263581179023039</v>
+        <v>0.05331616727582435</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.1979486935175776</v>
+        <v>0.2044224345392823</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.082564478222065</v>
+        <v>-0.08248326176321535</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.02879031372343755</v>
+        <v>0.03000894295417398</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.2003414278139641</v>
+        <v>0.2012337012942709</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.08237964700649016</v>
+        <v>-0.08043931283497037</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.05835668566559137</v>
+        <v>0.06204714616378931</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.2610064824633161</v>
+        <v>0.2597039881308829</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.02028039268371696</v>
+        <v>-0.01865972202015235</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.1337852891451647</v>
+        <v>0.1343449844092001</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.2823088461187013</v>
+        <v>0.2887038614970192</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.01719972237908639</v>
+        <v>-0.01116468775171728</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.08378440892478267</v>
+        <v>0.08518385097082189</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.2617367126582796</v>
+        <v>0.2637486753329466</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.02727896140644155</v>
+        <v>-0.0292646241162578</v>
       </c>
     </row>
     <row r="52">
